--- a/Output_testing/R1_201907/Country/HKD/MN/MADAGASCAR_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MADAGASCAR_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>100.872234</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>35.09520988758275</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>136.198706</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>43.93717699516979</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>114.725173</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>35.92604702403543</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>24.933749</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>17.15087326055986</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-68.0243346316947</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>25.304162</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>8.803759381589545</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>25.940305</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>8.368242295148443</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>33.489403</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.48716541909135</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>22.145221</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>15.23276257806593</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>5.113501275612831</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>19.104963</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.646949906745425</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>22.804184</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>7.356541762139936</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>21.627858</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.772737170221228</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>14.852097</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>10.21613048645598</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>13.49934962974251</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>17.680574</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.151380125703755</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>19.29835</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.22557324197144</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>19.553387</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.123119124354365</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>14.653447</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>10.07948753824911</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>28.72024461810221</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.850779</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.339753189521866</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.004962</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.614581428167893</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>5.896479</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.846475157027982</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>9.451449</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.501252736908728</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>152.6896358859451</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>25.610241</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>8.910249605125008</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>20.286082</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>6.544211773733945</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>19.805576</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.202091799975821</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>9.370092</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.445290691415313</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-22.03183865591864</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>10.136928</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.526814086176723</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>10.279963</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>3.316276395715512</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>11.679807</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.657517217373542</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>7.791446</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>5.359406756781585</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>21.37687176226137</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>17.325066</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>6.027692690797588</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>9.385028999999999</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.027574140666222</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>16.756813</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>5.247375410895812</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>5.32959</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.66599995134094</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-22.47657099568686</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>14.950789</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>5.201640304109489</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>9.448416</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.048022542269926</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>18.204199</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>5.700622559173641</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.20038</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.57712184745063</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-35.13948357340364</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>4.85939</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.690666551269409</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.959508</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.599918143164741</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>6.254854</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.958699848135998</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>3.405158</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.342264426026808</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-15.11037507506962</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>47.729381</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.60588427137843</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>46.379604</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>14.96188128185215</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>51.343485</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>16.07814926971483</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>28.24626</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>19.42940972674512</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>11.28411132343034</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,553 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>3.868978</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>70.35640111414332</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4.165125</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>84.11170506979447</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>5.445727</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>88.24934883267937</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.944396</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>84.91149225142649</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-19.81151704702052</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>5.277323815677184</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>6.627662085863256</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>5.734032038744799</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>7.963534496133644</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>65.36361023282554</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.641408</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>11.66384469640831</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.906725038909331</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.108182498949495</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.642424773748806</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>13.74900192901507</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.538775435238374</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.8218264636764456</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.204309104707122</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.757350748614462</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>12.06164144246859</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.508613</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>9.249000702476927</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.541168162423411</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.483395861277256</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.5582525811756006</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>18.40479540033029</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.02883865088788</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.7662518020871597</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2207316636419574</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.1669451489009997</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-55.39374325782093</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.2246613772459322</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.512028030702406</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.373787554465602</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1846,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>100.872234</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>35.77976164857289</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>136.198706</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>44.65045137445558</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>114.725173</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>36.63395844263432</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>24.933749</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>17.56995530792291</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-68.0243346316947</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>21.435184</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.603140567039519</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>21.77518</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.138625940836894</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>28.043676</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.954886136129005</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>19.200825</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>13.53016095274116</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>10.37450472287733</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>18.814757</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.673665232157129</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>22.475989</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>7.368374365739558</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>21.27402</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.79320452702888</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>14.575953</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.27117272979626</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>12.82892900958315</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>17.039166</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.043856411175221</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>19.104893</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.26321733123277</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>19.361586</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.182527499065009</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>14.492466</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>10.21234231248547</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>28.90870707087598</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.850779</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.365885827227043</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>5.004962</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.640792478689173</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>5.896479</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.882859367262545</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>9.451449</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.66011102161623</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>152.6896358859451</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>25.610241</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>9.084049023267482</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>20.286082</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>6.650450246709529</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>19.805576</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.324302061557456</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>9.370092</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>6.602781542042714</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-22.03183865591864</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>9.628315000000001</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.415199625472546</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>10.104608</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>3.312625511742636</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>11.588269</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.700357592557892</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7.772088</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>5.476723087620877</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>21.38446062226167</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>17.325066</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>6.145266218906126</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>9.385028999999999</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.076723658537222</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>16.756813</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>5.350773287332455</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>5.32959</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.755578758314799</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-22.47657099568686</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>14.950789</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>5.303101216912727</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>9.448416</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.097504018677153</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>18.204199</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>5.812951527625461</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.20038</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.664528915576078</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-35.13948357340364</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>4.85939</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.723643950995064</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>4.959508</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.625891150501999</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>6.254854</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.997295410491515</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>3.405158</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.399497719994541</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-15.11037507506962</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>47.539473</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>16.86243027827426</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>46.289839</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.17534392287749</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>51.255548</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>16.36688414831546</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>28.179533</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>19.85714765188896</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>11.31662452853093</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2304,469 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>23.636535</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>58.31705323661942</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>22.764603</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>62.35254147392804</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>39.065759</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>78.76261288727282</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>12.632441</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>66.76028740801293</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-47.97965759356828</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.5010598531704776</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.285613227876589</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.321918</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>2.665191164024687</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.488203</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.864898003597806</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.3170035957092292</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.1606431070836544</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.3039917705404679</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.115307</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.894206501195508</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>3.081688</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.603270240526</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3.599736</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>9.859723371200095</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.690252</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.407809482414988</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>0.807297</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>4.266426397212274</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-15.19597544424323</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1.200697</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.962410136259364</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.00551</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.493117778130259</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.633145</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.292672937028695</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>0.67325</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.558010957458238</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>0.7970942888883004</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.611892</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.509685676816062</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>0.87897</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.772139480242178</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.494333474491109</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-9.110516281846371</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>0.51593</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.272924194530588</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.535503</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.466749629541657</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>0.894259</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.80296446916492</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.434921429658216</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-31.89054307157629</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1.31607</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.247063254115619</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2.354147</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>6.448039021511742</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.67621828011562</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.962151219138648</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>10.69767441860465</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.689572</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.701341039813244</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.08340842108970917</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.4774879293323268</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.174362936354437</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-6.17191161630023</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.7903</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.949861397742957</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.7282110000000001</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.9945793291133</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1.035332</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.087389458523152</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.01704943888595</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-68.97917405461169</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>8.356832000000001</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>20.61832737469704</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>3.96332</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>10.85558464052496</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>2.356725</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>4.751522141340145</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>2.573352233994883</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-66.13780015174054</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
